--- a/Assets/StreamingAssets/story/1.xlsx
+++ b/Assets/StreamingAssets/story/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\Unity_VNcase\Assets\StreamingAssets\story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_proj\case_galgame\Assets\StreamingAssets\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42CD7F-1423-4C7F-8F2C-A90ADBFF814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF07382B-A1A8-4405-AF88-8D9FEF38022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4860" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>中文姓名</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>End of story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Annie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,9 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CreditBgm</t>
-  </si>
-  <si>
     <t>本系统文本仍在设计中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,20 +111,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前已经实现基础场景、UI设计与声音控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后续将会重新修复读档存档功能，加入miniGame，独白模式等关键内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感谢您的关注，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在将播放结尾字幕与音乐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>1-1-1
+1-1-2
+1-1-3
+1-1-4</t>
+  </si>
+  <si>
+    <t>目前已经实现基础场景、UI设计、声音控制与多选项等功能，详细请见readme文档。</t>
+  </si>
+  <si>
+    <t>接下来会展示多选项分支测试：</t>
+  </si>
+  <si>
+    <t>继续
+循环以上内容
+继续并播放音乐
+直接跳转谢幕</t>
+  </si>
+  <si>
+    <t>SentiveBgm</t>
   </si>
 </sst>
 </file>
@@ -184,13 +189,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,33 +467,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.84375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.3828125" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" customWidth="1"/>
+    <col min="5" max="5" width="13.921875" customWidth="1"/>
+    <col min="6" max="6" width="16.61328125" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" customWidth="1"/>
+    <col min="9" max="9" width="13.61328125" customWidth="1"/>
+    <col min="10" max="10" width="13.4609375" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.69140625" customWidth="1"/>
+    <col min="13" max="13" width="14.07421875" customWidth="1"/>
+    <col min="14" max="14" width="18.61328125" customWidth="1"/>
+    <col min="15" max="15" width="11.84375" customWidth="1"/>
+    <col min="16" max="16" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,64 +543,64 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -599,23 +608,23 @@
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -623,32 +632,26 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -678,7 +681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/story/1.xlsx
+++ b/Assets/StreamingAssets/story/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_proj\case_galgame\Assets\StreamingAssets\story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\Unity_VNcase\Assets\StreamingAssets\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF07382B-A1A8-4405-AF88-8D9FEF38022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A05365-188A-4DBB-AF43-A6439FCCB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4860" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>中文姓名</t>
   </si>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t>欢迎您体验框架中的各类功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续将会重新修复读档存档功能，加入miniGame，独白模式等关键内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,9 +120,6 @@
 1-1-4</t>
   </si>
   <si>
-    <t>目前已经实现基础场景、UI设计、声音控制与多选项等功能，详细请见readme文档。</t>
-  </si>
-  <si>
     <t>接下来会展示多选项分支测试：</t>
   </si>
   <si>
@@ -137,6 +130,18 @@
   </si>
   <si>
     <t>SentiveBgm</t>
+  </si>
+  <si>
+    <t>与多选项等功能，详细请见readme文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已经实现基础场景、UI设计、存读档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续将会加入miniGame，独白模式等关键内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,33 +472,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.84375" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="22.3828125" customWidth="1"/>
-    <col min="4" max="4" width="17.23046875" customWidth="1"/>
-    <col min="5" max="5" width="13.921875" customWidth="1"/>
-    <col min="6" max="6" width="16.61328125" customWidth="1"/>
-    <col min="7" max="7" width="20.23046875" customWidth="1"/>
-    <col min="8" max="8" width="19.69140625" customWidth="1"/>
-    <col min="9" max="9" width="13.61328125" customWidth="1"/>
-    <col min="10" max="10" width="13.4609375" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="10.69140625" customWidth="1"/>
-    <col min="13" max="13" width="14.07421875" customWidth="1"/>
-    <col min="14" max="14" width="18.61328125" customWidth="1"/>
-    <col min="15" max="15" width="11.84375" customWidth="1"/>
-    <col min="16" max="16" width="20.84375" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -557,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -569,7 +574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -592,12 +597,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -608,15 +613,15 @@
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -624,33 +629,49 @@
       <c r="J5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="56.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="56" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
@@ -667,7 +688,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,7 +702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/story/1.xlsx
+++ b/Assets/StreamingAssets/story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\Unity\Unity_VNcase\Assets\StreamingAssets\story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A05365-188A-4DBB-AF43-A6439FCCB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E1657-854C-47D3-A865-594A252ABA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4860" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="5130" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>中文姓名</t>
   </si>
@@ -53,24 +53,6 @@
     <t>Bgm</t>
   </si>
   <si>
-    <t>Action1</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>Character1</t>
-  </si>
-  <si>
-    <t>Action2</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>Character2</t>
-  </si>
-  <si>
     <t>English Name</t>
   </si>
   <si>
@@ -96,10 +78,6 @@
   </si>
   <si>
     <t>Bella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appearAt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,6 +119,61 @@
   </si>
   <si>
     <t>后续将会加入miniGame，独白模式等关键内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterCommands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annie
+appearAt
+0
+angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bella
+appearAt
+0.6
+laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice
+appearAt
+0.2
+scared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob
+appearAt
+smile
+0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍勃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice
+disappear;
+Bob
+disappear;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +238,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,33 +508,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" customWidth="1"/>
+    <col min="6" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,159 +547,133 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="56" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>3</v>
